--- a/図/表.xlsx
+++ b/図/表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavieで同期\日韓ゲーミング\git日韓ゲーミング\図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CD573-7948-42C4-AD17-022C53313EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FABC5E-C31C-4F6A-ADA6-0738DF01EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>出品者</t>
     <rPh sb="0" eb="3">
@@ -144,6 +144,26 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月23日まで</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物語をメール送付</t>
+    <rPh sb="0" eb="2">
+      <t>モノガタリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウフ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,44 +282,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -595,10 +644,11 @@
     <col min="4" max="4" width="39.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="9">
-        <v>44585</v>
-      </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -607,57 +657,67 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="11"/>
+      <c r="B4" s="5">
+        <v>44585</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="8" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7">
         <v>44600</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="D3:D4"/>
+  <mergeCells count="2">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/図/表.xlsx
+++ b/図/表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavieで同期\日韓ゲーミング\git日韓ゲーミング\図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FABC5E-C31C-4F6A-ADA6-0738DF01EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A7A53-78E5-4534-A247-0EF16A830043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,22 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受け手グループの物語を評価</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モノガタリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受け手グループ</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -158,12 +142,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>物語をメール送付</t>
+    <t>物語を教員にメール送付</t>
     <rPh sb="0" eb="2">
       <t>モノガタリ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="3" eb="5">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ソウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け手グループの物語の評価・衣服の受け渡し</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モノガタリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イフク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,16 +345,16 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -634,7 +646,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -645,12 +657,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:4">
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -658,11 +670,11 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -685,7 +697,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -696,23 +708,23 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="7">
-        <v>44600</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>44599</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
